--- a/Analisi.xlsx
+++ b/Analisi.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikyi\Desktop\Sito alberghi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="19440" windowHeight="12855"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <t>Utenti:</t>
   </si>
@@ -45,12 +50,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Età</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -66,27 +65,9 @@
     <t>Password di ogni utente</t>
   </si>
   <si>
-    <t>Nickname di ogni utente</t>
-  </si>
-  <si>
-    <t>Età di ogni utente</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Prenotazioni</t>
   </si>
   <si>
-    <t>COD_Utente</t>
-  </si>
-  <si>
-    <t>COD_Suddivisione</t>
-  </si>
-  <si>
-    <t>COD_Parcheggio</t>
-  </si>
-  <si>
-    <t>Codice_Generato</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -102,77 +83,182 @@
     <t>Identificativo utente</t>
   </si>
   <si>
-    <t>Identificativo suddivisione</t>
-  </si>
-  <si>
-    <t>Identificativo parcheggio</t>
-  </si>
-  <si>
-    <t>Codice oer ogni prenotazione</t>
-  </si>
-  <si>
-    <t>SuddivisioneParcheggio</t>
-  </si>
-  <si>
-    <t>ID_Suddivisione</t>
-  </si>
-  <si>
-    <t>Identificativo  suddivisione</t>
-  </si>
-  <si>
-    <t>COD_Fascia</t>
-  </si>
-  <si>
-    <t>Identificativo fascia</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Posti_Liberi</t>
-  </si>
-  <si>
-    <t>Giorno per cui si ha prenotato</t>
-  </si>
-  <si>
-    <t>Posti rimanenti per un determinato parcheggio</t>
-  </si>
-  <si>
-    <t>Parcheggio</t>
-  </si>
-  <si>
-    <t>ID_Parcheggio</t>
-  </si>
-  <si>
-    <t>Nome_Parcheggio</t>
-  </si>
-  <si>
-    <t>Posti_Totali</t>
-  </si>
-  <si>
-    <t>Nome del parcheggio / zona</t>
-  </si>
-  <si>
-    <t>Posti totali del parcheggio</t>
-  </si>
-  <si>
     <t>Fasce</t>
   </si>
   <si>
-    <t>ID_Fascia</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
-  <si>
-    <t>Arco di tempo della fascia</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>Nome di ogni utente</t>
+  </si>
+  <si>
+    <t>Cognome di ogni utente</t>
+  </si>
+  <si>
+    <t>Cod_Stanza</t>
+  </si>
+  <si>
+    <t>Cod_Utente</t>
+  </si>
+  <si>
+    <t>NumPersone</t>
+  </si>
+  <si>
+    <t>Arrivo</t>
+  </si>
+  <si>
+    <t>Partenza</t>
+  </si>
+  <si>
+    <t>Messaggio</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Identificatico stanza prenotata</t>
+  </si>
+  <si>
+    <t>Numero di persone in quella stanza</t>
+  </si>
+  <si>
+    <t>Arrivo al soggiorno</t>
+  </si>
+  <si>
+    <t>Partenza dal soggiorno</t>
+  </si>
+  <si>
+    <t>Messaggio aggiuntivo per l'hotel</t>
+  </si>
+  <si>
+    <t>Costo del pernottamento</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanze </t>
+  </si>
+  <si>
+    <t>ID_Stanza</t>
+  </si>
+  <si>
+    <t>Identificativo univoco per ogni stanza</t>
+  </si>
+  <si>
+    <t>Cod_Hotel</t>
+  </si>
+  <si>
+    <t>MetriQuad</t>
+  </si>
+  <si>
+    <t>NumLetti</t>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>PrezzoPerNotte</t>
+  </si>
+  <si>
+    <t>Codice dell'hotel a cui appartiene la stanza</t>
+  </si>
+  <si>
+    <t>Metri quadrati della stanza</t>
+  </si>
+  <si>
+    <t>Numero letti della stanza</t>
+  </si>
+  <si>
+    <t>Vista della stanza</t>
+  </si>
+  <si>
+    <t>Nome o numero di stanza</t>
+  </si>
+  <si>
+    <t>Categoria di lusoo della stanza</t>
+  </si>
+  <si>
+    <t>Prezzo per ogni notte dell'esame</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>ID_Luogo</t>
+  </si>
+  <si>
+    <t>Identificativo luogo</t>
+  </si>
+  <si>
+    <t>Attrazioni</t>
+  </si>
+  <si>
+    <t>Immagine</t>
+  </si>
+  <si>
+    <t>Nome del luogo</t>
+  </si>
+  <si>
+    <t>Breve descrizione del luogo</t>
+  </si>
+  <si>
+    <t>Attrazioni del luogo</t>
+  </si>
+  <si>
+    <t>Percorso delle foto</t>
+  </si>
+  <si>
+    <t>ID_Hotel</t>
+  </si>
+  <si>
+    <t>Identificativo hotel</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>Stelle</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Email dell'hotel</t>
+  </si>
+  <si>
+    <t>Nome dell'hotel</t>
+  </si>
+  <si>
+    <t>Zona dell'hotel</t>
+  </si>
+  <si>
+    <t>Immagine dell'hotel</t>
+  </si>
+  <si>
+    <t>Indirizzo dell'hotel</t>
+  </si>
+  <si>
+    <t>Stelle dell'hotel</t>
+  </si>
+  <si>
+    <t>Numero dell'hotel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -317,6 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -326,6 +413,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -374,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,9 +496,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,6 +531,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -633,8 +725,8 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +736,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -662,100 +754,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -763,7 +855,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -781,344 +873,586 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="4"/>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="7" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="4"/>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="4"/>
-      <c r="C33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="D54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1127,24 +1461,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisi.xlsx
+++ b/Analisi.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikyi\Desktop\Sito alberghi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="19440" windowHeight="12855"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>Utenti:</t>
   </si>
@@ -83,9 +78,6 @@
     <t>Identificativo utente</t>
   </si>
   <si>
-    <t>Fasce</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -252,13 +244,16 @@
   </si>
   <si>
     <t>Numero dell'hotel</t>
+  </si>
+  <si>
+    <t>Hotel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -404,6 +399,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -464,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,10 +492,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +526,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,14 +701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -725,8 +719,8 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +730,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -754,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -772,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -790,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -808,13 +802,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
@@ -826,13 +820,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>15</v>
@@ -844,8 +838,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -855,7 +849,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -873,10 +867,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>18</v>
@@ -891,13 +885,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -909,13 +903,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -927,16 +921,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="4"/>
       <c r="C15" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
@@ -945,16 +939,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
@@ -963,78 +957,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="4"/>
-      <c r="C25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>41</v>
+      <c r="C25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
@@ -1043,37 +1098,37 @@
         <v>10</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="4"/>
-      <c r="C26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
+      <c r="C26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="4"/>
       <c r="C27" s="13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>10</v>
@@ -1082,222 +1137,307 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="4"/>
       <c r="C28" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B29" s="9"/>
+      <c r="C29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="4"/>
-      <c r="C32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="D34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:8">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="4"/>
+      <c r="C41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="B43" s="4"/>
-      <c r="C43" s="7" t="s">
-        <v>56</v>
+      <c r="C43" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="4"/>
+      <c r="C44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="4"/>
+      <c r="C45" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="4"/>
+      <c r="C46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
@@ -1305,13 +1445,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="4"/>
-      <c r="C47" s="7" t="s">
-        <v>59</v>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>15</v>
@@ -1323,136 +1463,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="13" t="s">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B48" s="9"/>
+      <c r="C48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D48" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="E48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1461,24 +1488,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
